--- a/data/evaluation/evaluation_North_Summer_Peppers.xlsx
+++ b/data/evaluation/evaluation_North_Summer_Peppers.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2684.789012843826</v>
+        <v>2700.714894147794</v>
       </c>
       <c r="C4" t="n">
-        <v>29207182.90004918</v>
+        <v>29058317.62902643</v>
       </c>
       <c r="D4" t="n">
-        <v>5404.367021219893</v>
+        <v>5390.576743635734</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2156991245660772</v>
+        <v>0.2196966056920183</v>
       </c>
     </row>
     <row r="5">
